--- a/public/import_invite_excel/demo-excel.xlsx
+++ b/public/import_invite_excel/demo-excel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>name</t>
   </si>
@@ -25,12 +25,6 @@
   </si>
   <si>
     <t>phone</t>
-  </si>
-  <si>
-    <t>Rajib Jana</t>
-  </si>
-  <si>
-    <t>rajibjana2008@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -375,10 +369,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -400,15 +394,7 @@
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2">
-        <v>9876543210</v>
-      </c>
+      <c r="B2" s="1"/>
     </row>
     <row r="3" spans="1:3">
       <c r="B3" s="1"/>
@@ -416,12 +402,12 @@
     <row r="4" spans="1:3">
       <c r="B4" s="1"/>
     </row>
+    <row r="5" spans="1:3">
+      <c r="B5" s="1"/>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId2"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="203" verticalDpi="203" r:id="rId1"/>
 </worksheet>
 </file>
 
